--- a/data/trans_dic/P42C_R2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P42C_R2-Dificultad-trans_dic.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.798050689011186</v>
+        <v>0.7986417414247238</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9198336576254644</v>
+        <v>0.9167901480855892</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8631722361500975</v>
+        <v>0.8642613385515403</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8532255102495828</v>
+        <v>0.8536376234682334</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9517615344181058</v>
+        <v>0.950250818033236</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9218732427919213</v>
+        <v>0.923421420919465</v>
       </c>
     </row>
     <row r="7">
@@ -645,7 +645,7 @@
         <v>0.8415183023082715</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8421343040933222</v>
+        <v>0.8421343040933224</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7393409373758432</v>
+        <v>0.7448918993673251</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8167532272942309</v>
+        <v>0.8140782471180485</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8124012860000949</v>
+        <v>0.814422422636624</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8026072507914521</v>
+        <v>0.8030378939811349</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8689455425269639</v>
+        <v>0.8676968638528963</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8671195167666846</v>
+        <v>0.8670490546637128</v>
       </c>
     </row>
     <row r="10">
@@ -700,7 +700,7 @@
         <v>0.811921017996556</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7441757593556437</v>
+        <v>0.7441757593556438</v>
       </c>
     </row>
     <row r="11">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6954352132800795</v>
+        <v>0.691926845822472</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7794015489222899</v>
+        <v>0.7793064333259103</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7117470191106356</v>
+        <v>0.7121760346792111</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7646931584418263</v>
+        <v>0.7685576298976488</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8398439600527704</v>
+        <v>0.8431269044596281</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7726837938433725</v>
+        <v>0.7730969574530137</v>
       </c>
     </row>
     <row r="13">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5755274227282703</v>
+        <v>0.5704130612397442</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6241845047289063</v>
+        <v>0.6286219899579577</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5408676577636383</v>
+        <v>0.5430352521041487</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6822189327807896</v>
+        <v>0.6728314449190254</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7263562241990125</v>
+        <v>0.72964540052857</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.61590698178605</v>
+        <v>0.6191412179263789</v>
       </c>
     </row>
     <row r="16">
@@ -810,7 +810,7 @@
         <v>0.8455343167684261</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7564881913385427</v>
+        <v>0.7564881913385426</v>
       </c>
     </row>
     <row r="17">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7422643678457351</v>
+        <v>0.7434939122317559</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8323378195146423</v>
+        <v>0.8302429508394569</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7397968627975099</v>
+        <v>0.7399524953895994</v>
       </c>
     </row>
     <row r="18">
@@ -838,13 +838,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7777687522831266</v>
+        <v>0.7775081096374084</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8593480421054153</v>
+        <v>0.8591156814378149</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.77250368612165</v>
+        <v>0.7731535022017776</v>
       </c>
     </row>
     <row r="19">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>671021</v>
+        <v>671518</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>887673</v>
+        <v>884735</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>303548</v>
+        <v>303931</v>
       </c>
     </row>
     <row r="7">
@@ -996,13 +996,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>717413</v>
+        <v>717760</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>918484</v>
+        <v>917026</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>324191</v>
+        <v>324736</v>
       </c>
     </row>
     <row r="8">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>622543</v>
+        <v>627217</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>656203</v>
+        <v>654054</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>498667</v>
+        <v>499908</v>
       </c>
     </row>
     <row r="11">
@@ -1068,13 +1068,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>675815</v>
+        <v>676177</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>698136</v>
+        <v>697133</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>532254</v>
+        <v>532211</v>
       </c>
     </row>
     <row r="12">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>476870</v>
+        <v>474465</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>472559</v>
+        <v>472501</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>411699</v>
+        <v>411948</v>
       </c>
     </row>
     <row r="15">
@@ -1140,13 +1140,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>524362</v>
+        <v>527011</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>509206</v>
+        <v>511196</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>446947</v>
+        <v>447186</v>
       </c>
     </row>
     <row r="16">
@@ -1195,13 +1195,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>207041</v>
+        <v>205202</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>240971</v>
+        <v>242684</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>293508</v>
+        <v>294685</v>
       </c>
     </row>
     <row r="19">
@@ -1212,13 +1212,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>245423</v>
+        <v>242046</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>280415</v>
+        <v>281685</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>334229</v>
+        <v>335984</v>
       </c>
     </row>
     <row r="20">
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2025124</v>
+        <v>2028478</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2297945</v>
+        <v>2292161</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1543647</v>
+        <v>1543972</v>
       </c>
     </row>
     <row r="23">
@@ -1284,13 +1284,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2121990</v>
+        <v>2121279</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2372516</v>
+        <v>2371874</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1611892</v>
+        <v>1613248</v>
       </c>
     </row>
     <row r="24">
